--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C0EF3D-F239-4A2F-BF44-8D4366841870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DD256-9BFC-47E9-A168-B545A3A22B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>MARCA</t>
   </si>
@@ -80,17 +80,62 @@
     <t>ASW5000-S</t>
   </si>
   <si>
-    <t>60 V - 550 V / 360 V</t>
-  </si>
-  <si>
     <t>ASW9100-S</t>
+  </si>
+  <si>
+    <t>60 - 550 / 360</t>
+  </si>
+  <si>
+    <t>LIVOLTEK</t>
+  </si>
+  <si>
+    <t>GT1-3K-S</t>
+  </si>
+  <si>
+    <t>GT1-3K-SS</t>
+  </si>
+  <si>
+    <t>GT1-5K-D</t>
+  </si>
+  <si>
+    <t>GT1-6K-D</t>
+  </si>
+  <si>
+    <t>GT1-6K-DS</t>
+  </si>
+  <si>
+    <t>GT1-8K-D</t>
+  </si>
+  <si>
+    <t>GT1-10K-D</t>
+  </si>
+  <si>
+    <t>70 - 580</t>
+  </si>
+  <si>
+    <t>70 - 540</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>50 - 490</t>
+  </si>
+  <si>
+    <t>27.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +147,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>22.7</v>
@@ -585,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>9.1</v>
@@ -606,8 +657,191 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DD256-9BFC-47E9-A168-B545A3A22B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86E62C-7405-44FA-BCB4-C084E3DEB5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
+    <workbookView xWindow="-24120" yWindow="-1095" windowWidth="24240" windowHeight="13140" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>MODELO</t>
   </si>
   <si>
-    <t>AWS7300-S</t>
-  </si>
-  <si>
     <t>FATOR DE POTÊNCIA</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>27.3</t>
+  </si>
+  <si>
+    <t>ASW7300-S</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,36 +535,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>7.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>40</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>20</v>
@@ -607,16 +607,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>22.7</v>
@@ -633,16 +633,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>9.1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -659,19 +659,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -685,16 +685,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -711,19 +711,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -737,19 +737,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -763,19 +763,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -789,16 +789,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>40</v>
@@ -815,16 +815,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>45</v>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86E62C-7405-44FA-BCB4-C084E3DEB5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D92AB-458B-49CB-85D4-406DF064926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1095" windowWidth="24240" windowHeight="13140" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>MARCA</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>ASW7300-S</t>
+  </si>
+  <si>
+    <t>DISJUNT</t>
   </si>
 </sst>
 </file>
@@ -187,12 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +533,7 @@
     <col min="8" max="8" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +558,11 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -578,8 +587,11 @@
       <c r="H2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -604,8 +616,11 @@
       <c r="H3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,8 +645,11 @@
       <c r="H4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -656,8 +674,11 @@
       <c r="H5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -682,8 +703,11 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -708,8 +732,11 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -734,8 +761,11 @@
       <c r="H8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -760,8 +790,11 @@
       <c r="H9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -786,8 +819,11 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -812,8 +848,11 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -837,6 +876,9 @@
       </c>
       <c r="H12" s="2">
         <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D92AB-458B-49CB-85D4-406DF064926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C27FB7-8E84-4AD9-AB5B-6748B9AD4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1095" windowWidth="24240" windowHeight="13140" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>MARCA</t>
   </si>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>DISJUNT</t>
+  </si>
+  <si>
+    <t>1P5K-4G</t>
+  </si>
+  <si>
+    <t>90-520</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>1P8K-4G</t>
+  </si>
+  <si>
+    <t>100-500</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>S6 GR1P5K</t>
   </si>
 </sst>
 </file>
@@ -198,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -515,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -617,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -646,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -675,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="2">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -879,6 +903,93 @@
       </c>
       <c r="I12" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C27FB7-8E84-4AD9-AB5B-6748B9AD4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA37121-039D-4745-9A02-C9D3203A1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>MARCA</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>S6 GR1P5K</t>
+  </si>
+  <si>
+    <t>HMS 2000</t>
+  </si>
+  <si>
+    <t>HOYMILES</t>
+  </si>
+  <si>
+    <t>16–60</t>
   </si>
 </sst>
 </file>
@@ -539,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,6 +1001,35 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA37121-039D-4745-9A02-C9D3203A1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25A0C3-9D41-4542-95D9-761C69D11CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>MARCA</t>
   </si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t>16–60</t>
+  </si>
+  <si>
+    <t>3P15K-4G</t>
+  </si>
+  <si>
+    <t>160-850</t>
+  </si>
+  <si>
+    <t>GROWATT</t>
+  </si>
+  <si>
+    <t>65-550 / 360</t>
+  </si>
+  <si>
+    <t>MIC 3000TL-X</t>
   </si>
 </sst>
 </file>
@@ -548,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1045,64 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>98.1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25A0C3-9D41-4542-95D9-761C69D11CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A55A80-F6A2-4C64-A5B6-B5917ACAB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>MARCA</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>MIC 3000TL-X</t>
+  </si>
+  <si>
+    <t>KEHUA TECH</t>
+  </si>
+  <si>
+    <t>SPI 5000-B2</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>SUNGROW</t>
+  </si>
+  <si>
+    <t>SG8.0RS</t>
+  </si>
+  <si>
+    <t>40-560</t>
   </si>
 </sst>
 </file>
@@ -563,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1121,64 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>98.3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A55A80-F6A2-4C64-A5B6-B5917ACAB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93D77A-EEC4-4A89-8783-C36BE08F5AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>MARCA</t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>40-560</t>
+  </si>
+  <si>
+    <t>ASW4000-S-G2</t>
+  </si>
+  <si>
+    <t>60  - 560  / 360</t>
+  </si>
+  <si>
+    <t>MIN 5000TL-X</t>
+  </si>
+  <si>
+    <t>APSYSTEMS</t>
+  </si>
+  <si>
+    <t>DS3D-L</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>52 - 120</t>
   </si>
 </sst>
 </file>
@@ -581,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1200,93 @@
         <v>50</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>98.1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>97</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhas/inversores.xlsx
+++ b/planilhas/inversores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93D77A-EEC4-4A89-8783-C36BE08F5AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292EE195-78AB-4A91-A6A4-F2A9EABF8304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69FF0626-1807-484F-89BF-3E72F6E20843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>MARCA</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>52 - 120</t>
+  </si>
+  <si>
+    <t>ASW5000-S-G2</t>
+  </si>
+  <si>
+    <t>150 V - 1000 V / 630 V</t>
+  </si>
+  <si>
+    <t>ASW15K-LT-G2-PRO</t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F7690-7413-419B-BA91-838BF345AD60}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,6 +1296,64 @@
         <v>59</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>98.3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
